--- a/tut05/output/0501CS09.xlsx
+++ b/tut05/output/0501CS09.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.102040816326531</v>
+        <v>7.1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.772727272727272</v>
+        <v>6.77</v>
       </c>
       <c r="D6" t="n">
-        <v>6.13953488372093</v>
+        <v>6.14</v>
       </c>
       <c r="E6" t="n">
-        <v>5.021276595744681</v>
+        <v>5.02</v>
       </c>
       <c r="F6" t="n">
-        <v>5.619047619047619</v>
+        <v>5.62</v>
       </c>
       <c r="G6" t="n">
-        <v>5.375</v>
+        <v>5.38</v>
       </c>
       <c r="H6" t="n">
-        <v>6.804878048780488</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
         <v>6.15</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.102040816326531</v>
+        <v>7.1</v>
       </c>
       <c r="C8" t="n">
-        <v>6.946236559139785</v>
+        <v>6.95</v>
       </c>
       <c r="D8" t="n">
-        <v>6.691176470588236</v>
+        <v>6.69</v>
       </c>
       <c r="E8" t="n">
-        <v>6.262295081967213</v>
+        <v>6.26</v>
       </c>
       <c r="F8" t="n">
-        <v>6.142222222222222</v>
+        <v>6.14</v>
       </c>
       <c r="G8" t="n">
-        <v>6.026415094339622</v>
+        <v>6.03</v>
       </c>
       <c r="H8" t="n">
-        <v>6.130718954248366</v>
+        <v>6.13</v>
       </c>
       <c r="I8" t="n">
-        <v>6.132947976878612</v>
+        <v>6.13</v>
       </c>
     </row>
   </sheetData>
